--- a/medicine/Handicap/ReadSpeaker/ReadSpeaker.xlsx
+++ b/medicine/Handicap/ReadSpeaker/ReadSpeaker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ReadSpeaker est une suite d'applications basées sur le Web qui utilise la technologie text-to-speech pour activer la parole sur des sites Web, des sites mobiles, des flux RSS, des applications mobiles comme l'iPhone, Android ou BlackBerry Apps, ainsi que des documents et formulaires en ligne. Leader mondial dans le domaine de la vocalisation en ligne de contenus sur Internet, les produits ReadSpeaker offrent la possibilité aux personnes malvoyantes, souffrantes de difficultés de lecture, de dyslexie, de déficience visuelle, d'illettrisme d'avoir accès à des documents textes. Un nombre encore plus grand de personnes n'ont tout simplement pas assez de temps pour lire. À l'ère des smartphones et l'Internet mobile, ces problèmes peuvent être exacerbés par l'utilisation de petits écrans.
@@ -515,7 +527,9 @@
           <t>Caractéristiques ReadSpeaker</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Voici quelques-unes des caractéristiques que vous pouvez trouver dans les applications ReadSpeaker.
 Surlignage intégré: permet aux visiteurs du site de mettre en valeur du texte qui est actuellement en cours de lecture, sur un mot par mot et / ou phrase en fonction du paramètre qui aura été choisi par l'utilisateur.
@@ -553,7 +567,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Site de ReadSpeaker
  Portail du handicap   Portail du logiciel                    </t>
